--- a/XLS_Json/testfile.xlsx
+++ b/XLS_Json/testfile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="18200" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="18200" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="testinput" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="182">
   <si>
     <t>country</t>
   </si>
@@ -563,6 +563,9 @@
   <si>
     <t>Ccy</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -910,17 +913,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1327"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1042" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D1042" sqref="D1042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -960,11 +968,11 @@
       <c r="D2">
         <v>43.756637560000001</v>
       </c>
-      <c r="E2">
-        <v>66.150174620000001</v>
-      </c>
-      <c r="F2">
-        <v>0.496501953</v>
+      <c r="E2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
       </c>
       <c r="G2">
         <v>18.96554093</v>
@@ -1037,8 +1045,8 @@
       <c r="D5">
         <v>39.445482089999999</v>
       </c>
-      <c r="E5">
-        <v>39.289266380000001</v>
+      <c r="E5" t="s">
+        <v>181</v>
       </c>
       <c r="F5">
         <v>0.94732418299999999</v>
@@ -1057,8 +1065,8 @@
       <c r="C6">
         <v>2004</v>
       </c>
-      <c r="D6">
-        <v>42.943438739999998</v>
+      <c r="D6" t="s">
+        <v>181</v>
       </c>
       <c r="E6">
         <v>22.52838041</v>
@@ -1224,8 +1232,8 @@
       <c r="E13">
         <v>8.2580943789999992</v>
       </c>
-      <c r="F13">
-        <v>0.438136046</v>
+      <c r="F13" t="s">
+        <v>181</v>
       </c>
       <c r="G13">
         <v>6.3798345769999996</v>
@@ -1333,11 +1341,11 @@
       <c r="C18">
         <v>2016</v>
       </c>
-      <c r="D18">
-        <v>67.491242400000004</v>
-      </c>
-      <c r="E18">
-        <v>55.280001550000001</v>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
       </c>
       <c r="F18">
         <v>0.72650409000000005</v>
@@ -1500,8 +1508,8 @@
       <c r="E25">
         <v>80.363519400000001</v>
       </c>
-      <c r="F25">
-        <v>0.729353064</v>
+      <c r="F25" t="s">
+        <v>181</v>
       </c>
       <c r="G25">
         <v>51.430735660000003</v>
@@ -1707,8 +1715,8 @@
       <c r="E34">
         <v>32.193863059999998</v>
       </c>
-      <c r="F34">
-        <v>0.71472359200000002</v>
+      <c r="F34" t="s">
+        <v>181</v>
       </c>
       <c r="G34">
         <v>71.942088650000002</v>
@@ -1773,8 +1781,8 @@
       <c r="D37">
         <v>18.540759810000001</v>
       </c>
-      <c r="E37">
-        <v>72.058662819999995</v>
+      <c r="E37" t="s">
+        <v>181</v>
       </c>
       <c r="F37">
         <v>0.92031175099999996</v>
@@ -1937,8 +1945,8 @@
       <c r="E44">
         <v>71.614794939999996</v>
       </c>
-      <c r="F44">
-        <v>0.794400259</v>
+      <c r="F44" t="s">
+        <v>181</v>
       </c>
       <c r="G44">
         <v>91.864898769999996</v>
@@ -2118,8 +2126,8 @@
       <c r="D52">
         <v>27.396433529999999</v>
       </c>
-      <c r="E52">
-        <v>44.878847669999999</v>
+      <c r="E52" t="s">
+        <v>181</v>
       </c>
       <c r="F52">
         <v>0.37695042000000001</v>
@@ -2167,8 +2175,8 @@
       <c r="E54">
         <v>9.0100598040000008</v>
       </c>
-      <c r="F54">
-        <v>0.41363656300000001</v>
+      <c r="F54" t="s">
+        <v>181</v>
       </c>
       <c r="G54">
         <v>99.158975069999997</v>
@@ -2256,8 +2264,8 @@
       <c r="D58">
         <v>59.172185020000001</v>
       </c>
-      <c r="E58">
-        <v>39.293390369999997</v>
+      <c r="E58" t="s">
+        <v>181</v>
       </c>
       <c r="F58">
         <v>0.712010586</v>
@@ -2420,8 +2428,8 @@
       <c r="E65">
         <v>25.308016370000001</v>
       </c>
-      <c r="F65">
-        <v>0.66479822</v>
+      <c r="F65" t="s">
+        <v>181</v>
       </c>
       <c r="G65">
         <v>72.235795269999997</v>
@@ -2460,8 +2468,8 @@
       <c r="C67">
         <v>2014</v>
       </c>
-      <c r="D67">
-        <v>48.083631179999998</v>
+      <c r="D67" t="s">
+        <v>181</v>
       </c>
       <c r="E67">
         <v>42.859506119999999</v>
@@ -2506,8 +2514,8 @@
       <c r="C69">
         <v>2016</v>
       </c>
-      <c r="D69">
-        <v>69.537904060000002</v>
+      <c r="D69" t="s">
+        <v>181</v>
       </c>
       <c r="E69">
         <v>36.838751670000001</v>
@@ -2670,8 +2678,8 @@
       <c r="D76">
         <v>43.905888820000001</v>
       </c>
-      <c r="E76">
-        <v>78.582244439999997</v>
+      <c r="E76" t="s">
+        <v>181</v>
       </c>
       <c r="F76">
         <v>0.208168776</v>
@@ -2828,14 +2836,14 @@
       <c r="C83">
         <v>2003</v>
       </c>
-      <c r="D83">
-        <v>5.562625369</v>
+      <c r="D83" t="s">
+        <v>181</v>
       </c>
       <c r="E83">
         <v>34.074570219999998</v>
       </c>
-      <c r="F83">
-        <v>0.53548439599999997</v>
+      <c r="F83" t="s">
+        <v>181</v>
       </c>
       <c r="G83">
         <v>11.626641879999999</v>
@@ -2995,8 +3003,8 @@
       <c r="E90">
         <v>18.310479239999999</v>
       </c>
-      <c r="F90">
-        <v>0.96012682000000005</v>
+      <c r="F90" t="s">
+        <v>181</v>
       </c>
       <c r="G90">
         <v>71.896437359999993</v>
@@ -3038,8 +3046,8 @@
       <c r="D92">
         <v>63.898280669999998</v>
       </c>
-      <c r="E92">
-        <v>12.54691212</v>
+      <c r="E92" t="s">
+        <v>181</v>
       </c>
       <c r="F92">
         <v>0.67804603200000002</v>
@@ -3179,8 +3187,8 @@
       <c r="E98">
         <v>87.939717569999999</v>
       </c>
-      <c r="F98">
-        <v>0.21292701</v>
+      <c r="F98" t="s">
+        <v>181</v>
       </c>
       <c r="G98">
         <v>22.46807162</v>
@@ -3222,8 +3230,8 @@
       <c r="D100">
         <v>30.852927829999999</v>
       </c>
-      <c r="E100">
-        <v>77.297784100000001</v>
+      <c r="E100" t="s">
+        <v>181</v>
       </c>
       <c r="F100">
         <v>0.197267585</v>
@@ -3498,8 +3506,8 @@
       <c r="D112">
         <v>23.453131599999999</v>
       </c>
-      <c r="E112">
-        <v>89.131560690000001</v>
+      <c r="E112" t="s">
+        <v>181</v>
       </c>
       <c r="F112">
         <v>0.77422580100000005</v>
@@ -3524,8 +3532,8 @@
       <c r="E113">
         <v>49.283217280000002</v>
       </c>
-      <c r="F113">
-        <v>0.44842703099999998</v>
+      <c r="F113" t="s">
+        <v>181</v>
       </c>
       <c r="G113">
         <v>75.952574299999995</v>
@@ -3731,8 +3739,8 @@
       <c r="E122">
         <v>18.830873279999999</v>
       </c>
-      <c r="F122">
-        <v>0.50769283700000001</v>
+      <c r="F122" t="s">
+        <v>181</v>
       </c>
       <c r="G122">
         <v>33.797050900000002</v>
@@ -3774,8 +3782,8 @@
       <c r="D124">
         <v>2.9155762599999999</v>
       </c>
-      <c r="E124">
-        <v>87.791698240000002</v>
+      <c r="E124" t="s">
+        <v>181</v>
       </c>
       <c r="F124">
         <v>0.76049315900000003</v>
@@ -4030,8 +4038,8 @@
       <c r="E135">
         <v>29.2873336</v>
       </c>
-      <c r="F135">
-        <v>0.143349053</v>
+      <c r="F135" t="s">
+        <v>181</v>
       </c>
       <c r="G135">
         <v>83.134303529999997</v>
@@ -4119,8 +4127,8 @@
       <c r="D139">
         <v>78.530071500000005</v>
       </c>
-      <c r="E139">
-        <v>8.0036635300000007</v>
+      <c r="E139" t="s">
+        <v>181</v>
       </c>
       <c r="F139">
         <v>0.77489473499999995</v>
@@ -4260,8 +4268,8 @@
       <c r="E145">
         <v>5.6866467050000002</v>
       </c>
-      <c r="F145">
-        <v>0.37589915499999998</v>
+      <c r="F145" t="s">
+        <v>181</v>
       </c>
       <c r="G145">
         <v>28.14893172</v>
@@ -4303,8 +4311,8 @@
       <c r="D147">
         <v>91.251513509999995</v>
       </c>
-      <c r="E147">
-        <v>17.62244351</v>
+      <c r="E147" t="s">
+        <v>181</v>
       </c>
       <c r="F147">
         <v>0.73315804900000003</v>
@@ -4490,8 +4498,8 @@
       <c r="E155">
         <v>68.57111596</v>
       </c>
-      <c r="F155">
-        <v>0.288941697</v>
+      <c r="F155" t="s">
+        <v>181</v>
       </c>
       <c r="G155">
         <v>31.016346339999998</v>
@@ -4760,8 +4768,8 @@
       <c r="C167">
         <v>2016</v>
       </c>
-      <c r="D167">
-        <v>84.868687800000004</v>
+      <c r="D167" t="s">
+        <v>181</v>
       </c>
       <c r="E167">
         <v>85.278284650000003</v>
@@ -4789,8 +4797,8 @@
       <c r="E168">
         <v>10.55715929</v>
       </c>
-      <c r="F168">
-        <v>0.40482308900000002</v>
+      <c r="F168" t="s">
+        <v>181</v>
       </c>
       <c r="G168">
         <v>50.097583020000002</v>
@@ -5082,8 +5090,8 @@
       <c r="C181">
         <v>2013</v>
       </c>
-      <c r="D181">
-        <v>99.264343229999994</v>
+      <c r="D181" t="s">
+        <v>181</v>
       </c>
       <c r="E181">
         <v>25.68125384</v>
@@ -5134,8 +5142,8 @@
       <c r="E183">
         <v>54.462132910000001</v>
       </c>
-      <c r="F183">
-        <v>0.43112667199999999</v>
+      <c r="F183" t="s">
+        <v>181</v>
       </c>
       <c r="G183">
         <v>81.513705819999998</v>
@@ -5151,8 +5159,8 @@
       <c r="C184">
         <v>2016</v>
       </c>
-      <c r="D184">
-        <v>51.668976010000002</v>
+      <c r="D184" t="s">
+        <v>181</v>
       </c>
       <c r="E184">
         <v>85.325240780000001</v>
@@ -5433,8 +5441,8 @@
       <c r="E196">
         <v>10.0438621</v>
       </c>
-      <c r="F196">
-        <v>0.50334804399999999</v>
+      <c r="F196" t="s">
+        <v>181</v>
       </c>
       <c r="G196">
         <v>68.616019769999994</v>
@@ -5841,8 +5849,8 @@
       <c r="C214">
         <v>2012</v>
       </c>
-      <c r="D214">
-        <v>68.988568630000003</v>
+      <c r="D214" t="s">
+        <v>181</v>
       </c>
       <c r="E214">
         <v>71.580058469999997</v>
@@ -6071,8 +6079,8 @@
       <c r="C224">
         <v>2005</v>
       </c>
-      <c r="D224">
-        <v>28.857789839999999</v>
+      <c r="D224" t="s">
+        <v>181</v>
       </c>
       <c r="E224">
         <v>63.536635879999999</v>
@@ -6278,8 +6286,8 @@
       <c r="C233">
         <v>2014</v>
       </c>
-      <c r="D233">
-        <v>92.867822439999998</v>
+      <c r="D233" t="s">
+        <v>181</v>
       </c>
       <c r="E233">
         <v>76.42661133</v>
@@ -6439,8 +6447,8 @@
       <c r="C240">
         <v>2011</v>
       </c>
-      <c r="D240">
-        <v>19.477672569999999</v>
+      <c r="D240" t="s">
+        <v>181</v>
       </c>
       <c r="E240">
         <v>38.315813249999998</v>
@@ -6876,8 +6884,8 @@
       <c r="C259">
         <v>2013</v>
       </c>
-      <c r="D259">
-        <v>87.554364090000007</v>
+      <c r="D259" t="s">
+        <v>181</v>
       </c>
       <c r="E259">
         <v>93.633692019999998</v>
@@ -6945,8 +6953,8 @@
       <c r="C262">
         <v>2016</v>
       </c>
-      <c r="D262">
-        <v>13.56585364</v>
+      <c r="D262" t="s">
+        <v>181</v>
       </c>
       <c r="E262">
         <v>67.659586709999999</v>
@@ -7014,8 +7022,8 @@
       <c r="C265">
         <v>2002</v>
       </c>
-      <c r="D265">
-        <v>31.471495579999999</v>
+      <c r="D265" t="s">
+        <v>181</v>
       </c>
       <c r="E265">
         <v>13.69013981</v>
@@ -7428,8 +7436,8 @@
       <c r="C283">
         <v>2003</v>
       </c>
-      <c r="D283">
-        <v>32.475095609999997</v>
+      <c r="D283" t="s">
+        <v>181</v>
       </c>
       <c r="E283">
         <v>5.315390045</v>
@@ -7589,8 +7597,8 @@
       <c r="C290">
         <v>2010</v>
       </c>
-      <c r="D290">
-        <v>75.156677340000002</v>
+      <c r="D290" t="s">
+        <v>181</v>
       </c>
       <c r="E290">
         <v>23.15167185</v>
@@ -7727,8 +7735,8 @@
       <c r="C296">
         <v>2016</v>
       </c>
-      <c r="D296">
-        <v>89.644002200000003</v>
+      <c r="D296" t="s">
+        <v>181</v>
       </c>
       <c r="E296">
         <v>90.507238770000001</v>
@@ -7842,8 +7850,8 @@
       <c r="C301">
         <v>2004</v>
       </c>
-      <c r="D301">
-        <v>78.280851010000006</v>
+      <c r="D301" t="s">
+        <v>181</v>
       </c>
       <c r="E301">
         <v>85.123966080000002</v>
@@ -8118,8 +8126,8 @@
       <c r="C313">
         <v>2016</v>
       </c>
-      <c r="D313">
-        <v>25.417434230000001</v>
+      <c r="D313" t="s">
+        <v>181</v>
       </c>
       <c r="E313">
         <v>77.116075699999996</v>
@@ -8440,8 +8448,8 @@
       <c r="C327">
         <v>2013</v>
       </c>
-      <c r="D327">
-        <v>7.793561489</v>
+      <c r="D327" t="s">
+        <v>181</v>
       </c>
       <c r="E327">
         <v>6.2891972230000004</v>
@@ -8716,8 +8724,8 @@
       <c r="C339">
         <v>2008</v>
       </c>
-      <c r="D339">
-        <v>54.996346619999997</v>
+      <c r="D339" t="s">
+        <v>181</v>
       </c>
       <c r="E339">
         <v>18.598811730000001</v>
@@ -8900,8 +8908,8 @@
       <c r="C347">
         <v>2016</v>
       </c>
-      <c r="D347">
-        <v>48.854428249999998</v>
+      <c r="D347" t="s">
+        <v>181</v>
       </c>
       <c r="E347">
         <v>86.721239170000004</v>
@@ -9107,8 +9115,8 @@
       <c r="C356">
         <v>2008</v>
       </c>
-      <c r="D356">
-        <v>1.5863259700000001</v>
+      <c r="D356" t="s">
+        <v>181</v>
       </c>
       <c r="E356">
         <v>35.782722149999998</v>
@@ -9199,8 +9207,8 @@
       <c r="C360">
         <v>2012</v>
       </c>
-      <c r="D360">
-        <v>57.836075620000003</v>
+      <c r="D360" t="s">
+        <v>181</v>
       </c>
       <c r="E360">
         <v>73.536470710000003</v>
@@ -9429,8 +9437,8 @@
       <c r="C370">
         <v>2012</v>
       </c>
-      <c r="D370">
-        <v>92.658836249999993</v>
+      <c r="D370" t="s">
+        <v>181</v>
       </c>
       <c r="E370">
         <v>80.209491610000001</v>
@@ -9521,8 +9529,8 @@
       <c r="C374">
         <v>2016</v>
       </c>
-      <c r="D374">
-        <v>52.220073390000003</v>
+      <c r="D374" t="s">
+        <v>181</v>
       </c>
       <c r="E374">
         <v>33.238701659999997</v>
@@ -9889,8 +9897,8 @@
       <c r="C390">
         <v>2015</v>
       </c>
-      <c r="D390">
-        <v>39.372806089999997</v>
+      <c r="D390" t="s">
+        <v>181</v>
       </c>
       <c r="E390">
         <v>66.225949470000003</v>
@@ -10096,8 +10104,8 @@
       <c r="C399">
         <v>2007</v>
       </c>
-      <c r="D399">
-        <v>57.281127939999998</v>
+      <c r="D399" t="s">
+        <v>181</v>
       </c>
       <c r="E399">
         <v>79.898310309999999</v>
@@ -10349,8 +10357,8 @@
       <c r="C410">
         <v>2001</v>
       </c>
-      <c r="D410">
-        <v>18.418801210000002</v>
+      <c r="D410" t="s">
+        <v>181</v>
       </c>
       <c r="E410">
         <v>76.591055569999995</v>
@@ -10487,8 +10495,8 @@
       <c r="C416">
         <v>2007</v>
       </c>
-      <c r="D416">
-        <v>32.021364779999999</v>
+      <c r="D416" t="s">
+        <v>181</v>
       </c>
       <c r="E416">
         <v>6.5628783000000004</v>
@@ -11384,8 +11392,8 @@
       <c r="C455">
         <v>2002</v>
       </c>
-      <c r="D455">
-        <v>92.013845290000006</v>
+      <c r="D455" t="s">
+        <v>181</v>
       </c>
       <c r="E455">
         <v>77.800304019999999</v>
@@ -11637,8 +11645,8 @@
       <c r="C466">
         <v>2013</v>
       </c>
-      <c r="D466">
-        <v>49.093295269999999</v>
+      <c r="D466" t="s">
+        <v>181</v>
       </c>
       <c r="E466">
         <v>76.563403039999997</v>
@@ -12097,8 +12105,8 @@
       <c r="C486">
         <v>2016</v>
       </c>
-      <c r="D486">
-        <v>46.808391479999997</v>
+      <c r="D486" t="s">
+        <v>181</v>
       </c>
       <c r="E486">
         <v>30.51048874</v>
@@ -12764,8 +12772,8 @@
       <c r="C515">
         <v>2001</v>
       </c>
-      <c r="D515">
-        <v>95.391565540000002</v>
+      <c r="D515" t="s">
+        <v>181</v>
       </c>
       <c r="E515">
         <v>97.431113830000001</v>
@@ -13224,8 +13232,8 @@
       <c r="C535">
         <v>2004</v>
       </c>
-      <c r="D535">
-        <v>61.40681343</v>
+      <c r="D535" t="s">
+        <v>181</v>
       </c>
       <c r="E535">
         <v>79.276390190000001</v>
@@ -13753,8 +13761,8 @@
       <c r="C558">
         <v>2010</v>
       </c>
-      <c r="D558">
-        <v>1.4607884799999999</v>
+      <c r="D558" t="s">
+        <v>181</v>
       </c>
       <c r="E558">
         <v>68.086090900000002</v>
@@ -14098,8 +14106,8 @@
       <c r="C573">
         <v>2008</v>
       </c>
-      <c r="D573">
-        <v>89.891896279999997</v>
+      <c r="D573" t="s">
+        <v>181</v>
       </c>
       <c r="E573">
         <v>36.355690959999997</v>
@@ -14466,8 +14474,8 @@
       <c r="C589">
         <v>2007</v>
       </c>
-      <c r="D589">
-        <v>66.926888309999995</v>
+      <c r="D589" t="s">
+        <v>181</v>
       </c>
       <c r="E589">
         <v>29.093239189999998</v>
@@ -14880,8 +14888,8 @@
       <c r="C607">
         <v>2008</v>
       </c>
-      <c r="D607">
-        <v>38.348441860000001</v>
+      <c r="D607" t="s">
+        <v>181</v>
       </c>
       <c r="E607">
         <v>63.764747030000002</v>
@@ -15432,8 +15440,8 @@
       <c r="C631">
         <v>2015</v>
       </c>
-      <c r="D631">
-        <v>94.507788259999998</v>
+      <c r="D631" t="s">
+        <v>181</v>
       </c>
       <c r="E631">
         <v>66.285820979999997</v>
@@ -15869,8 +15877,8 @@
       <c r="C650">
         <v>2000</v>
       </c>
-      <c r="D650">
-        <v>12.35095065</v>
+      <c r="D650" t="s">
+        <v>181</v>
       </c>
       <c r="E650">
         <v>34.147036550000003</v>
@@ -16467,8 +16475,8 @@
       <c r="C676">
         <v>2009</v>
       </c>
-      <c r="D676">
-        <v>55.211936289999997</v>
+      <c r="D676" t="s">
+        <v>181</v>
       </c>
       <c r="E676">
         <v>8.3572470669999994</v>
@@ -16858,8 +16866,8 @@
       <c r="C693">
         <v>2009</v>
       </c>
-      <c r="D693">
-        <v>84.77052673</v>
+      <c r="D693" t="s">
+        <v>181</v>
       </c>
       <c r="E693">
         <v>47.409156869999997</v>
@@ -17272,8 +17280,8 @@
       <c r="C711">
         <v>2010</v>
       </c>
-      <c r="D711">
-        <v>9.1122620629999993</v>
+      <c r="D711" t="s">
+        <v>181</v>
       </c>
       <c r="E711">
         <v>16.151063520000001</v>
@@ -18192,8 +18200,8 @@
       <c r="C751">
         <v>2016</v>
       </c>
-      <c r="D751">
-        <v>86.935156340000006</v>
+      <c r="D751" t="s">
+        <v>181</v>
       </c>
       <c r="E751">
         <v>39.983730850000001</v>
@@ -18215,8 +18223,8 @@
       <c r="C752">
         <v>2000</v>
       </c>
-      <c r="D752">
-        <v>97.784821179999994</v>
+      <c r="D752" t="s">
+        <v>181</v>
       </c>
       <c r="E752">
         <v>91.549227819999999</v>
@@ -19066,8 +19074,8 @@
       <c r="C789">
         <v>2010</v>
       </c>
-      <c r="D789">
-        <v>65.233014639999993</v>
+      <c r="D789" t="s">
+        <v>181</v>
       </c>
       <c r="E789">
         <v>8.1563467379999999</v>
@@ -19181,8 +19189,8 @@
       <c r="C794">
         <v>2015</v>
       </c>
-      <c r="D794">
-        <v>95.844934710000004</v>
+      <c r="D794" t="s">
+        <v>181</v>
       </c>
       <c r="E794">
         <v>89.891353269999996</v>
@@ -19434,8 +19442,8 @@
       <c r="C805">
         <v>2009</v>
       </c>
-      <c r="D805">
-        <v>30.390510920000001</v>
+      <c r="D805" t="s">
+        <v>181</v>
       </c>
       <c r="E805">
         <v>80.911413159999995</v>
@@ -19457,8 +19465,8 @@
       <c r="C806">
         <v>2010</v>
       </c>
-      <c r="D806">
-        <v>32.40534306</v>
+      <c r="D806" t="s">
+        <v>181</v>
       </c>
       <c r="E806">
         <v>21.935811380000001</v>
@@ -19526,8 +19534,8 @@
       <c r="C809">
         <v>2013</v>
       </c>
-      <c r="D809">
-        <v>59.893665089999999</v>
+      <c r="D809" t="s">
+        <v>181</v>
       </c>
       <c r="E809">
         <v>64.014933029999995</v>
@@ -25437,8 +25445,8 @@
       <c r="C1066">
         <v>2016</v>
       </c>
-      <c r="D1066">
-        <v>92.060154620000006</v>
+      <c r="D1066" t="s">
+        <v>181</v>
       </c>
       <c r="E1066">
         <v>83.830606239999995</v>
@@ -25874,8 +25882,8 @@
       <c r="C1085">
         <v>2015</v>
       </c>
-      <c r="D1085">
-        <v>19.044952389999999</v>
+      <c r="D1085" t="s">
+        <v>181</v>
       </c>
       <c r="E1085">
         <v>16.315742629999999</v>
@@ -26288,8 +26296,8 @@
       <c r="C1103">
         <v>2016</v>
       </c>
-      <c r="D1103">
-        <v>29.304939480000002</v>
+      <c r="D1103" t="s">
+        <v>181</v>
       </c>
       <c r="E1103">
         <v>24.1968505</v>
@@ -26610,8 +26618,8 @@
       <c r="C1117">
         <v>2013</v>
       </c>
-      <c r="D1117">
-        <v>65.279923260000004</v>
+      <c r="D1117" t="s">
+        <v>181</v>
       </c>
       <c r="E1117">
         <v>20.281096120000001</v>
@@ -27001,8 +27009,8 @@
       <c r="C1134">
         <v>2013</v>
       </c>
-      <c r="D1134">
-        <v>70.521304430000001</v>
+      <c r="D1134" t="s">
+        <v>181</v>
       </c>
       <c r="E1134">
         <v>68.277246719999994</v>
@@ -27415,8 +27423,8 @@
       <c r="C1152">
         <v>2014</v>
       </c>
-      <c r="D1152">
-        <v>95.791380219999994</v>
+      <c r="D1152" t="s">
+        <v>181</v>
       </c>
       <c r="E1152">
         <v>97.603579929999995</v>
@@ -28105,8 +28113,8 @@
       <c r="C1182">
         <v>2010</v>
       </c>
-      <c r="D1182">
-        <v>23.373491820000002</v>
+      <c r="D1182" t="s">
+        <v>181</v>
       </c>
       <c r="E1182">
         <v>63.188048999999999</v>
@@ -28151,8 +28159,8 @@
       <c r="C1184">
         <v>2012</v>
       </c>
-      <c r="D1184">
-        <v>94.045248090000001</v>
+      <c r="D1184" t="s">
+        <v>181</v>
       </c>
       <c r="E1184">
         <v>80.621075520000005</v>
@@ -28496,8 +28504,8 @@
       <c r="C1199">
         <v>2010</v>
       </c>
-      <c r="D1199">
-        <v>12.61709875</v>
+      <c r="D1199" t="s">
+        <v>181</v>
       </c>
       <c r="E1199">
         <v>73.737199000000004</v>
@@ -28772,8 +28780,8 @@
       <c r="C1211">
         <v>2005</v>
       </c>
-      <c r="D1211">
-        <v>49.02120996</v>
+      <c r="D1211" t="s">
+        <v>181</v>
       </c>
       <c r="E1211">
         <v>34.758691300000002</v>
@@ -29048,8 +29056,8 @@
       <c r="C1223">
         <v>2000</v>
       </c>
-      <c r="D1223">
-        <v>38.741238889999998</v>
+      <c r="D1223" t="s">
+        <v>181</v>
       </c>
       <c r="E1223">
         <v>78.337274070000007</v>
@@ -29370,8 +29378,8 @@
       <c r="C1237">
         <v>2004</v>
       </c>
-      <c r="D1237">
-        <v>58.24167679</v>
+      <c r="D1237" t="s">
+        <v>181</v>
       </c>
       <c r="E1237">
         <v>34.524827250000001</v>
@@ -29899,8 +29907,8 @@
       <c r="C1260">
         <v>2010</v>
       </c>
-      <c r="D1260">
-        <v>93.122531050000006</v>
+      <c r="D1260" t="s">
+        <v>181</v>
       </c>
       <c r="E1260">
         <v>32.078320380000001</v>
@@ -30020,8 +30028,8 @@
       <c r="E1265">
         <v>90.043632400000007</v>
       </c>
-      <c r="F1265">
-        <v>0.17552497</v>
+      <c r="F1265" t="s">
+        <v>181</v>
       </c>
       <c r="G1265">
         <v>48.463959420000002</v>
@@ -30040,8 +30048,8 @@
       <c r="D1266">
         <v>48.071743830000003</v>
       </c>
-      <c r="E1266">
-        <v>49.816551029999999</v>
+      <c r="E1266" t="s">
+        <v>181</v>
       </c>
       <c r="F1266">
         <v>0.22709601500000001</v>
@@ -30109,8 +30117,8 @@
       <c r="D1269">
         <v>15.415195689999999</v>
       </c>
-      <c r="E1269">
-        <v>79.696535420000004</v>
+      <c r="E1269" t="s">
+        <v>181</v>
       </c>
       <c r="F1269">
         <v>0.98472672800000005</v>
@@ -30336,8 +30344,8 @@
       <c r="C1279">
         <v>2012</v>
       </c>
-      <c r="D1279">
-        <v>51.527684010000002</v>
+      <c r="D1279" t="s">
+        <v>181</v>
       </c>
       <c r="E1279">
         <v>71.463475169999995</v>
@@ -30385,8 +30393,8 @@
       <c r="D1281">
         <v>72.073657420000004</v>
       </c>
-      <c r="E1281">
-        <v>2.7212092010000002</v>
+      <c r="E1281" t="s">
+        <v>181</v>
       </c>
       <c r="F1281">
         <v>0.20954455999999999</v>
@@ -30589,8 +30597,8 @@
       <c r="C1290">
         <v>2006</v>
       </c>
-      <c r="D1290">
-        <v>91.022629269999996</v>
+      <c r="D1290" t="s">
+        <v>181</v>
       </c>
       <c r="E1290">
         <v>27.488785660000001</v>
@@ -30707,8 +30715,8 @@
       <c r="D1295">
         <v>80.563750409999997</v>
       </c>
-      <c r="E1295">
-        <v>17.464029190000002</v>
+      <c r="E1295" t="s">
+        <v>181</v>
       </c>
       <c r="F1295">
         <v>0.93806836199999999</v>
@@ -30750,8 +30758,8 @@
       <c r="C1297">
         <v>2013</v>
       </c>
-      <c r="D1297">
-        <v>13.513381669999999</v>
+      <c r="D1297" t="s">
+        <v>181</v>
       </c>
       <c r="E1297">
         <v>56.363070720000003</v>
@@ -30822,8 +30830,8 @@
       <c r="D1300">
         <v>1.9586300729999999</v>
       </c>
-      <c r="E1300">
-        <v>44.94101526</v>
+      <c r="E1300" t="s">
+        <v>181</v>
       </c>
       <c r="F1300">
         <v>0.17781448499999999</v>
@@ -31052,8 +31060,8 @@
       <c r="D1310">
         <v>14.15915671</v>
       </c>
-      <c r="E1310">
-        <v>71.806014880000006</v>
+      <c r="E1310" t="s">
+        <v>181</v>
       </c>
       <c r="F1310">
         <v>8.8047070000000002E-3</v>
@@ -31164,8 +31172,8 @@
       <c r="C1315">
         <v>2014</v>
       </c>
-      <c r="D1315">
-        <v>96.339780869999998</v>
+      <c r="D1315" t="s">
+        <v>181</v>
       </c>
       <c r="E1315">
         <v>99.932748029999999</v>
@@ -31305,8 +31313,8 @@
       <c r="D1321">
         <v>22.675662939999999</v>
       </c>
-      <c r="E1321">
-        <v>22.321022209999999</v>
+      <c r="E1321" t="s">
+        <v>181</v>
       </c>
       <c r="F1321">
         <v>0.90317922100000003</v>
@@ -31348,8 +31356,8 @@
       <c r="C1323">
         <v>2012</v>
       </c>
-      <c r="D1323">
-        <v>8.5878074830000006</v>
+      <c r="D1323" t="s">
+        <v>181</v>
       </c>
       <c r="E1323">
         <v>96.767553890000002</v>
@@ -31440,8 +31448,8 @@
       <c r="C1327">
         <v>2016</v>
       </c>
-      <c r="D1327">
-        <v>22.135261060000001</v>
+      <c r="D1327" t="s">
+        <v>181</v>
       </c>
       <c r="E1327">
         <v>70.735649890000005</v>
@@ -31455,6 +31463,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31462,7 +31471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
